--- a/Module 1 - OOP - Teamwork/TelerikProject.xlsx
+++ b/Module 1 - OOP - Teamwork/TelerikProject.xlsx
@@ -2,19 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Source\Repos\Telerik-Academy\Module 1 - OOP - Teamwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TODO" sheetId="2" r:id="rId1"/>
+    <sheet name="schema" sheetId="1" r:id="rId2"/>
+    <sheet name="Q-s" sheetId="3" r:id="rId3"/>
+    <sheet name="PartCategory" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,11 +26,45 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Angel Hristov</author>
+  </authors>
+  <commentList>
+    <comment ref="G15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Angel Hristov:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Interface/ contract between Part class and Vendor class, Service class
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>classes</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="90">
   <si>
     <t>Employee</t>
   </si>
@@ -59,9 +96,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Pay.Salary, Pay.Invoices</t>
-  </si>
-  <si>
     <t>BankAccount</t>
   </si>
   <si>
@@ -80,18 +114,12 @@
     <t>WorkingType</t>
   </si>
   <si>
-    <t>Name,Age, ServiceStore, Salary, Position, WorkingType, PersonalPhone</t>
-  </si>
-  <si>
     <t>Client inherits Company</t>
   </si>
   <si>
     <t>Vendor inherits Company</t>
   </si>
   <si>
-    <t>specific service info - address, area, capacity of cars, Manager, List of Employees</t>
-  </si>
-  <si>
     <t>Balance, IBAN, AccountType</t>
   </si>
   <si>
@@ -104,26 +132,296 @@
     <t>SetLocation</t>
   </si>
   <si>
-    <t>PayInvoices, AddVendor</t>
-  </si>
-  <si>
-    <t>SendReminderForOutstandingInvoices, SetCreditLimit</t>
-  </si>
-  <si>
     <t>CreditLimit</t>
   </si>
   <si>
     <t>OutstandingLimit</t>
   </si>
   <si>
-    <t>Name, Address, TaxNumber</t>
+    <t>Angel</t>
+  </si>
+  <si>
+    <t>Classes</t>
+  </si>
+  <si>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>Name, 
+Address, 
+TaxNumber</t>
+  </si>
+  <si>
+    <t>specific service info - address, 
+area, 
+capacity of cars, 
+Manager, 
+List of Employees</t>
+  </si>
+  <si>
+    <t>SendReminderForOutstandingInvoices, 
+SetCreditLimit</t>
+  </si>
+  <si>
+    <t>PayInvoices, 
+AddVendor</t>
+  </si>
+  <si>
+    <t>Pay.Salary, 
+Pay.Invoices</t>
+  </si>
+  <si>
+    <t>Category (abstract) - Part Category, Job/Service Category, etc.</t>
+  </si>
+  <si>
+    <t>Coder</t>
+  </si>
+  <si>
+    <t>Reviewer</t>
+  </si>
+  <si>
+    <t>COMPLETED</t>
+  </si>
+  <si>
+    <t>IN PROGRESS</t>
+  </si>
+  <si>
+    <t>PROBLEMS</t>
+  </si>
+  <si>
+    <t>Raised by</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Name,
+Age,
+ServiceStore, 
+Salary, 
+Position, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WorkingType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 
+PersonalPhone</t>
+    </r>
+  </si>
+  <si>
+    <t>Interior</t>
+  </si>
+  <si>
+    <t>Doors</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>Cameras</t>
+  </si>
+  <si>
+    <t>Sensors</t>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>Bearings</t>
+  </si>
+  <si>
+    <t>Hose</t>
+  </si>
+  <si>
+    <t>source:</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_auto_parts</t>
+  </si>
+  <si>
+    <t>SubCategory</t>
+  </si>
+  <si>
+    <t>MainCategory</t>
+  </si>
+  <si>
+    <t>PartMainCategory,
+PartSubCategory</t>
+  </si>
+  <si>
+    <t>Body_and_main_part</t>
+  </si>
+  <si>
+    <t>Electrical_and_electronics</t>
+  </si>
+  <si>
+    <t>Miscellaneous_auto_parts</t>
+  </si>
+  <si>
+    <t>AudioVideo_devices</t>
+  </si>
+  <si>
+    <t>Electrical_supply_system</t>
+  </si>
+  <si>
+    <t>Gauges_and_meters</t>
+  </si>
+  <si>
+    <t>Ignition_electronic_system</t>
+  </si>
+  <si>
+    <t>Lighting_and_signaling system</t>
+  </si>
+  <si>
+    <t>Starting_system</t>
+  </si>
+  <si>
+    <t>Electrical_Switches</t>
+  </si>
+  <si>
+    <t>Wiring_harnesses</t>
+  </si>
+  <si>
+    <t>Floor_components_and_parts</t>
+  </si>
+  <si>
+    <t>Other_components</t>
+  </si>
+  <si>
+    <t>Car_seat</t>
+  </si>
+  <si>
+    <t>Braking_system</t>
+  </si>
+  <si>
+    <t>Engine_components_and_parts</t>
+  </si>
+  <si>
+    <t>Engine_cooling_system</t>
+  </si>
+  <si>
+    <t>Engine_oil_system</t>
+  </si>
+  <si>
+    <t>Exhaust_system</t>
+  </si>
+  <si>
+    <t>Fuel_supply_system</t>
+  </si>
+  <si>
+    <t>Suspension_and_steering_systems</t>
+  </si>
+  <si>
+    <t>Transmission_system</t>
+  </si>
+  <si>
+    <t>Air_conditioning_system</t>
+  </si>
+  <si>
+    <t>Other_miscellaneous_parts</t>
+  </si>
+  <si>
+    <t>PowerTrain_and_chassis</t>
+  </si>
+  <si>
+    <t>Lighting_and_signaling_system</t>
+  </si>
+  <si>
+    <t>Как да реализирам свързаните списъци на enum PartMainCategory &amp; PartSubCategry</t>
+  </si>
+  <si>
+    <t>Answered by</t>
+  </si>
+  <si>
+    <t>ЗА ВСЯКАКВИ ВЪПРОСИ, КОИТО ИЗНИКНАТ И СЕ НАЛАГА ДА ТЪРСИТЕ ЧУЖДА ПОМОЩ ИЛИ СМЯТАТЕ, ЧЕ ЩЕ Е ПОЛЕЗНО ЗА ДРУГИТЕ</t>
+  </si>
+  <si>
+    <t>Part Class implements Ipart Interface - implicit or explcity?</t>
+  </si>
+  <si>
+    <t>Залагам на implicit (default) заради този stackoverflow: https://stackoverflow.com/questions/143405/c-sharp-interfaces-implicit-implementation-versus-explicit-implementation
+Интерфейсите страхотно обяснени на 1 стр: Part Class implements Ipart Interface</t>
+  </si>
+  <si>
+    <t>IPart, 
+IVendor</t>
+  </si>
+  <si>
+    <t>в Part опитах да имплементирал Ivendor но се получава конфликт</t>
+  </si>
+  <si>
+    <t>OrderPart, 
+ReceivePart, 
+PayPart, 
+MountPart, 
+ReturnPartToSupplier, 
+GeneratePartSellPrice</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PartName, 
+PartNumber, 
+PartPurchasePrice, 
+PartOENumbers (comma separated), 
+PartProducer,
+PartVendor,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">PartMainCategory,
+PartSubCategory,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PartMountTime - employee confirms what is the time required to mount the part on this specific car model</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,16 +430,98 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -149,18 +529,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -435,135 +881,681 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="69.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="C6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="F10" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="C12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="E14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="15" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C16" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="80.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="80.140625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
+      <c r="B5" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="str">
+        <f>H4&amp;","</f>
+        <v>Doors,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="str">
+        <f>H5&amp;","</f>
+        <v>Windows,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" ref="I7:I17" si="0">H7&amp;","</f>
+        <v>AudioVideo_devices,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>Cameras,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>Electrical_supply_system,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>Gauges_and_meters,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>Ignition_electronic_system,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>Lighting_and_signaling system,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>Sensors,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>Starting_system,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>Electrical_Switches,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>Wiring_harnesses,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>Miscellaneous,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" ref="I19:I21" si="1">H19&amp;","</f>
+        <v>Floor_components_and_parts,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="1"/>
+        <v>Other_components,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="1"/>
+        <v>Car_seat,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" ref="I23:I30" si="2">H23&amp;","</f>
+        <v>Braking_system,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" t="s">
+        <v>70</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="2"/>
+        <v>Engine_components_and_parts,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" t="s">
+        <v>71</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="2"/>
+        <v>Engine_cooling_system,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" t="s">
+        <v>72</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="2"/>
+        <v>Engine_oil_system,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" t="s">
+        <v>73</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="2"/>
+        <v>Exhaust_system,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="2"/>
+        <v>Fuel_supply_system,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="2"/>
+        <v>Suspension_and_steering_systems,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+      <c r="H30" t="s">
+        <v>76</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="2"/>
+        <v>Transmission_system,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" t="s">
+        <v>77</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" ref="I32:I35" si="3">H32&amp;","</f>
+        <v>Air_conditioning_system,</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33" t="s">
+        <v>48</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="3"/>
+        <v>Bearings,</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" t="s">
+        <v>49</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="3"/>
+        <v>Hose,</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>78</v>
+      </c>
+      <c r="H35" t="s">
+        <v>78</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="3"/>
+        <v>Other_miscellaneous_parts,</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="G4:G32">
+    <sortCondition ref="G4:G32"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>